--- a/medicine/Handicap/Au_premier_regard/Au_premier_regard.xlsx
+++ b/medicine/Handicap/Au_premier_regard/Au_premier_regard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au premier regard (en portugais : Hoje eu quero voltar sozinho, litt. « Aujourd'hui je veux rentrer seul ») est un film dramatiquo-romantique brésilien écrit, coproduit et réalisé par Daniel Ribeiro, sorti en 2014. Il s'agit d'une adaptation par son réalisateur du court-métrage Eu não quero voltar sozinho (litt. « Je ne veux pas rentrer seul ») de 2010.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonardo est aveugle. Sa mère le surprotège et il tente tant bien que mal de vivre de façon indépendante en voulant s'inscrire par exemple dans un programme d'échange international, avec sa meilleure amie Giovana. Lorsque Gabriel, un nouvel élève, arrive dans sa classe, Leonardo éprouve une série d'émotions nouvelles qui lui font remettre en question ses plans. Va-t-il s'éloigner de Giovana et se rapprocher de Gabriel, ou bien les trois amis vont-ils poursuivre leur amitié ?
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Hoje eu quero voltar sozinho
 Titre international : The Way He Looks
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ghilherme Lobo (pt) : Leonardo
 Fábio Audi (pt) : Gabriel
@@ -630,8 +648,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Berlinale 2014 - sélection « Panorama » :
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Berlinale 2014 - sélection « Panorama » :
 Teddy Award du meilleur film
 Prix FIPRESCI
 Carrousel international du film de Rimouski 2014 : Meilleur long métrage 13 ans et plus
@@ -648,9 +671,43 @@
 Meilleur film — prix du jury
 Meilleur film — prix du public
 Rainbow Film Festival (en) 2014 : Jack Law Award
-Seattle Lesbian &amp; Gay Film Festival (en) 2014 : Prix du public
-Nominations
-Chlotrudis Awards 2015 : Buried Treasure
+Seattle Lesbian &amp; Gay Film Festival (en) 2014 : Prix du public</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Au_premier_regard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Au_premier_regard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions et sélections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chlotrudis Awards 2015 : Buried Treasure
 Dorian Awards 2014 : LGBT Film of the Year
 Festival international du film de Chicago 2014 : Prix du public
 Festival international du film de Palm Springs 2015 : Cine Latino Award
